--- a/SuppXLS/Scen_SYS_ZeroCO2_CAP21-A40E57.xlsx
+++ b/SuppXLS/Scen_SYS_ZeroCO2_CAP21-A40E57.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A14154CB-B5B5-4237-84C4-60FB7D23161A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF6D6EFC-5622-42A7-8BC7-2A5023630F11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regions" sheetId="15" r:id="rId1"/>
@@ -20,20 +20,29 @@
     <sheet name="negative_CO2" sheetId="23" r:id="rId5"/>
   </sheets>
   <definedNames>
+    <definedName name="__123Graph_AEUMILKPN" localSheetId="4" hidden="1">#REF!</definedName>
     <definedName name="__123Graph_AEUMILKPN" hidden="1">#REF!</definedName>
+    <definedName name="_Regression_Y" localSheetId="4" hidden="1">#REF!</definedName>
     <definedName name="_Regression_Y" hidden="1">#REF!</definedName>
+    <definedName name="aa" localSheetId="4" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="aa" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="aa" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="elec" localSheetId="4" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elec" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elec" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="elec2" localSheetId="4" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elec2" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elec2" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="elec3" localSheetId="4" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elec3" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elec3" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="elecc" localSheetId="4" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elecc" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elecc" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="table6" localSheetId="4" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="table6" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="table6" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="wrn.Electricity._.Questionnaire." localSheetId="4" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="wrn.Electricity._.Questionnaire." localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="wrn.Electricity._.Questionnaire." hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
   </definedNames>
@@ -334,34 +343,34 @@
     <t>T-A*INT*,T-NAV*</t>
   </si>
   <si>
+    <t>UC_FLO</t>
+  </si>
+  <si>
+    <t>UC_COMNET</t>
+  </si>
+  <si>
+    <t>UC_RHSRTS</t>
+  </si>
+  <si>
+    <t>UC_RHSTS</t>
+  </si>
+  <si>
+    <t>PWRCO2N</t>
+  </si>
+  <si>
+    <t>COM_BNDNET</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Attribute</t>
+  </si>
+  <si>
+    <t>TimeSlice</t>
+  </si>
+  <si>
     <t>~TFM_INS</t>
-  </si>
-  <si>
-    <t>TimeSlice</t>
-  </si>
-  <si>
-    <t>Attribute</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>COM_BNDNET</t>
-  </si>
-  <si>
-    <t>PWRCO2N</t>
-  </si>
-  <si>
-    <t>UC_FLO</t>
-  </si>
-  <si>
-    <t>UC_COMNET</t>
-  </si>
-  <si>
-    <t>UC_RHSRTS</t>
-  </si>
-  <si>
-    <t>UC_RHSTS</t>
   </si>
 </sst>
 </file>
@@ -520,13 +529,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="43"/>
+        <fgColor indexed="44"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="44"/>
+        <fgColor indexed="43"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -665,7 +674,7 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -687,10 +696,11 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="23">
     <cellStyle name="5x indented GHG Textfiels" xfId="3" xr:uid="{5F614CE9-C529-4323-B893-6D57470EC2CB}"/>
@@ -800,10 +810,6 @@
     <mc:Fallback/>
   </mc:AlternateContent>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1131,7 +1137,7 @@
   <dimension ref="A3:AD37"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1894,10 +1900,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{011941A8-04BF-45E8-9F60-D4E07475AB4A}">
-  <dimension ref="A1:R17"/>
+  <dimension ref="A1:AA17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1905,71 +1911,69 @@
     <col min="1" max="1" width="9.140625" style="8"/>
     <col min="2" max="2" width="14" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="12" width="9.140625" style="8"/>
-    <col min="13" max="13" width="10.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="8"/>
+    <col min="4" max="13" width="16.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.42578125" style="8" customWidth="1"/>
+    <col min="15" max="21" width="9.140625" style="8"/>
+    <col min="22" max="22" width="10.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12" style="8" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1"/>
       <c r="B1"/>
       <c r="C1"/>
-      <c r="D1"/>
-      <c r="E1"/>
-      <c r="F1"/>
-      <c r="G1"/>
-      <c r="H1"/>
-      <c r="I1"/>
-      <c r="J1"/>
-      <c r="K1"/>
-      <c r="L1"/>
       <c r="M1"/>
-      <c r="N1"/>
       <c r="O1"/>
       <c r="P1"/>
       <c r="Q1"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R1"/>
+      <c r="S1"/>
+      <c r="T1"/>
+      <c r="U1"/>
+      <c r="V1"/>
+      <c r="W1"/>
+      <c r="X1"/>
+      <c r="Y1"/>
+      <c r="Z1"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2"/>
       <c r="B2"/>
       <c r="C2"/>
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2"/>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
       <c r="M2"/>
-      <c r="N2"/>
       <c r="O2"/>
       <c r="P2"/>
       <c r="Q2"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
+      <c r="Z2"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3"/>
       <c r="B3"/>
       <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3"/>
-      <c r="L3"/>
       <c r="M3"/>
-      <c r="N3"/>
       <c r="O3"/>
       <c r="P3"/>
       <c r="Q3"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
+      <c r="X3"/>
+      <c r="Y3"/>
+      <c r="Z3"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4"/>
       <c r="B4" t="s">
         <v>61</v>
@@ -1978,78 +1982,130 @@
         <f xml:space="preserve"> _xlfn.TEXTJOIN("_",TRUE,"UC","NetZero","CO2","2050")</f>
         <v>UC_NetZero_CO2_2050</v>
       </c>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
-      <c r="I4"/>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
       <c r="O4"/>
       <c r="P4"/>
       <c r="Q4"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+      <c r="X4"/>
+      <c r="Y4"/>
+      <c r="Z4"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5"/>
       <c r="B5" t="s">
         <v>66</v>
       </c>
-      <c r="C5" t="str">
+      <c r="C5" s="8" t="str">
         <f xml:space="preserve"> _xlfn.TEXTJOIN(" ",TRUE,"Net Zero CO2 by 2050")</f>
         <v>Net Zero CO2 by 2050</v>
       </c>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5"/>
-      <c r="M5"/>
-      <c r="N5"/>
       <c r="O5"/>
       <c r="P5"/>
       <c r="Q5"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+      <c r="X5"/>
+      <c r="Y5"/>
+      <c r="Z5"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C6" s="8">
+        <v>2020</v>
+      </c>
+      <c r="D6" s="8">
+        <v>2021</v>
+      </c>
+      <c r="E6" s="8">
+        <v>2022</v>
+      </c>
+      <c r="F6" s="8">
+        <v>2023</v>
+      </c>
+      <c r="G6" s="8">
+        <v>2024</v>
+      </c>
+      <c r="H6" s="8">
         <v>2025</v>
       </c>
-      <c r="D6" s="8">
+      <c r="I6" s="8">
+        <v>2026</v>
+      </c>
+      <c r="J6" s="8">
+        <v>2027</v>
+      </c>
+      <c r="K6" s="8">
+        <v>2028</v>
+      </c>
+      <c r="L6" s="8">
+        <v>2029</v>
+      </c>
+      <c r="M6" s="8">
         <v>2030</v>
       </c>
-      <c r="E6" s="8">
+      <c r="N6" s="8">
         <v>2050</v>
       </c>
-      <c r="F6" s="8">
+      <c r="O6" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="8">
-        <v>29191.91</v>
-      </c>
-      <c r="D7" s="8">
-        <v>17281.75</v>
-      </c>
-      <c r="E7" s="8">
+      <c r="C7" s="16">
+        <v>33792</v>
+      </c>
+      <c r="D7" s="16">
+        <v>35644</v>
+      </c>
+      <c r="E7" s="16">
+        <v>36186</v>
+      </c>
+      <c r="F7" s="16">
+        <v>35729</v>
+      </c>
+      <c r="G7" s="16">
+        <v>32216</v>
+      </c>
+      <c r="H7" s="16">
+        <v>29049</v>
+      </c>
+      <c r="I7" s="16">
+        <v>26193</v>
+      </c>
+      <c r="J7" s="16">
+        <v>23618</v>
+      </c>
+      <c r="K7" s="16">
+        <v>21296</v>
+      </c>
+      <c r="L7" s="16">
+        <v>19202</v>
+      </c>
+      <c r="M7" s="16">
+        <v>17314</v>
+      </c>
+      <c r="N7" s="16">
         <v>0</v>
       </c>
-      <c r="F7" s="8">
+      <c r="O7" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
         <v>77</v>
       </c>
@@ -2061,11 +2117,47 @@
         <v>T-A*INT*,T-NAV*</v>
       </c>
       <c r="E8" s="8" t="str">
-        <f>D8</f>
+        <f t="shared" ref="E8:L8" si="0">D8</f>
         <v>T-A*INT*,T-NAV*</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F8" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>T-A*INT*,T-NAV*</v>
+      </c>
+      <c r="G8" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>T-A*INT*,T-NAV*</v>
+      </c>
+      <c r="H8" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>T-A*INT*,T-NAV*</v>
+      </c>
+      <c r="I8" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>T-A*INT*,T-NAV*</v>
+      </c>
+      <c r="J8" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>T-A*INT*,T-NAV*</v>
+      </c>
+      <c r="K8" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>T-A*INT*,T-NAV*</v>
+      </c>
+      <c r="L8" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>T-A*INT*,T-NAV*</v>
+      </c>
+      <c r="M8" s="8" t="str">
+        <f t="shared" ref="M8:N8" si="1">L8</f>
+        <v>T-A*INT*,T-NAV*</v>
+      </c>
+      <c r="N8" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>T-A*INT*,T-NAV*</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
         <v>62</v>
       </c>
@@ -2073,15 +2165,51 @@
         <v>76</v>
       </c>
       <c r="D9" s="8" t="str">
-        <f t="shared" ref="D9:E9" si="0">C9</f>
+        <f>C9</f>
         <v>*CO2*,-*CO2S</v>
       </c>
       <c r="E9" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>*CO2*,-*CO2S</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" ref="E9:L9" si="2">D9</f>
+        <v>*CO2*,-*CO2S</v>
+      </c>
+      <c r="F9" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>*CO2*,-*CO2S</v>
+      </c>
+      <c r="G9" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>*CO2*,-*CO2S</v>
+      </c>
+      <c r="H9" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>*CO2*,-*CO2S</v>
+      </c>
+      <c r="I9" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>*CO2*,-*CO2S</v>
+      </c>
+      <c r="J9" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>*CO2*,-*CO2S</v>
+      </c>
+      <c r="K9" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>*CO2*,-*CO2S</v>
+      </c>
+      <c r="L9" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>*CO2*,-*CO2S</v>
+      </c>
+      <c r="M9" s="8" t="str">
+        <f t="shared" ref="M9:N9" si="3">L9</f>
+        <v>*CO2*,-*CO2S</v>
+      </c>
+      <c r="N9" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>*CO2*,-*CO2S</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>71</v>
       </c>
@@ -2089,20 +2217,56 @@
         <v>75</v>
       </c>
       <c r="D10" s="8" t="str">
-        <f t="shared" ref="D10:E12" si="1">C10</f>
+        <f>C10</f>
         <v>ENV</v>
       </c>
       <c r="E10" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>ENV</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" ref="E10:L10" si="4">D10</f>
+        <v>ENV</v>
+      </c>
+      <c r="F10" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>ENV</v>
+      </c>
+      <c r="G10" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>ENV</v>
+      </c>
+      <c r="H10" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>ENV</v>
+      </c>
+      <c r="I10" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>ENV</v>
+      </c>
+      <c r="J10" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>ENV</v>
+      </c>
+      <c r="K10" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>ENV</v>
+      </c>
+      <c r="L10" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>ENV</v>
+      </c>
+      <c r="M10" s="8" t="str">
+        <f t="shared" ref="M10:N10" si="5">L10</f>
+        <v>ENV</v>
+      </c>
+      <c r="N10" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>ENV</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
         <v>0</v>
       </c>
@@ -2110,129 +2274,234 @@
         <v>68</v>
       </c>
       <c r="D12" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>C12</f>
         <v>UP</v>
       </c>
       <c r="E12" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="E12:L12" si="6">D12</f>
         <v>UP</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F12" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>UP</v>
+      </c>
+      <c r="G12" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>UP</v>
+      </c>
+      <c r="H12" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>UP</v>
+      </c>
+      <c r="I12" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>UP</v>
+      </c>
+      <c r="J12" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>UP</v>
+      </c>
+      <c r="K12" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>UP</v>
+      </c>
+      <c r="L12" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>UP</v>
+      </c>
+      <c r="M12" s="8" t="str">
+        <f t="shared" ref="M12:N12" si="7">L12</f>
+        <v>UP</v>
+      </c>
+      <c r="N12" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>UP</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C13" s="8">
         <v>-1</v>
       </c>
       <c r="D13" s="8">
-        <f t="shared" ref="D13:E13" si="2">C13</f>
+        <f t="shared" ref="D13:L14" si="8">C13</f>
         <v>-1</v>
       </c>
       <c r="E13" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F13" s="8">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="G13" s="8">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="H13" s="8">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="I13" s="8">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="J13" s="8">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="K13" s="8">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="L13" s="8">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="M13" s="8">
+        <f t="shared" ref="M13:N13" si="9">L13</f>
+        <v>-1</v>
+      </c>
+      <c r="N13" s="8">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14"/>
       <c r="B14" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C14" s="8">
         <v>1</v>
       </c>
       <c r="D14" s="8">
-        <f t="shared" ref="D14:E14" si="3">C14</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E14" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="F14"/>
-      <c r="G14"/>
-      <c r="H14"/>
-      <c r="I14"/>
-      <c r="J14"/>
-      <c r="K14"/>
-      <c r="L14"/>
-      <c r="M14"/>
-      <c r="N14"/>
+      <c r="F14" s="8">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="G14" s="8">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="H14" s="8">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="I14" s="8">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="J14" s="8">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K14" s="8">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="L14" s="8">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="M14" s="8">
+        <f t="shared" ref="M14:N14" si="10">L14</f>
+        <v>1</v>
+      </c>
+      <c r="N14" s="8">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
       <c r="O14"/>
       <c r="P14"/>
       <c r="Q14"/>
       <c r="R14"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S14"/>
+      <c r="T14"/>
+      <c r="U14"/>
+      <c r="V14"/>
+      <c r="W14"/>
+      <c r="X14"/>
+      <c r="Y14"/>
+      <c r="Z14"/>
+      <c r="AA14"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>
-      <c r="D15"/>
-      <c r="E15"/>
-      <c r="F15"/>
-      <c r="G15"/>
-      <c r="H15"/>
-      <c r="I15"/>
-      <c r="J15"/>
-      <c r="K15"/>
-      <c r="L15"/>
       <c r="M15"/>
-      <c r="N15"/>
       <c r="O15"/>
       <c r="P15"/>
       <c r="Q15"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R15"/>
+      <c r="S15"/>
+      <c r="T15"/>
+      <c r="U15"/>
+      <c r="V15"/>
+      <c r="W15"/>
+      <c r="X15"/>
+      <c r="Y15"/>
+      <c r="Z15"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
-      <c r="D16"/>
-      <c r="E16"/>
-      <c r="F16"/>
-      <c r="G16"/>
-      <c r="H16"/>
-      <c r="I16"/>
-      <c r="J16"/>
-      <c r="K16"/>
-      <c r="L16"/>
       <c r="M16"/>
-      <c r="N16"/>
       <c r="O16"/>
       <c r="P16"/>
       <c r="Q16"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R16"/>
+      <c r="S16"/>
+      <c r="T16"/>
+      <c r="U16"/>
+      <c r="V16"/>
+      <c r="W16"/>
+      <c r="X16"/>
+      <c r="Y16"/>
+      <c r="Z16"/>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17"/>
-      <c r="D17"/>
-      <c r="E17"/>
-      <c r="F17"/>
-      <c r="G17"/>
-      <c r="H17"/>
-      <c r="I17"/>
-      <c r="J17"/>
-      <c r="K17"/>
-      <c r="L17"/>
       <c r="M17"/>
-      <c r="N17"/>
       <c r="O17"/>
       <c r="P17"/>
       <c r="Q17"/>
+      <c r="R17"/>
+      <c r="S17"/>
+      <c r="T17"/>
+      <c r="U17"/>
+      <c r="V17"/>
+      <c r="W17"/>
+      <c r="X17"/>
+      <c r="Y17"/>
+      <c r="Z17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9318C9B-7F0A-410C-BCB5-F22D93E1F454}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2293,13 +2562,13 @@
         <v>0</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="K5" s="12" t="s">
         <v>63</v>
@@ -2323,163 +2592,582 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="str">
-        <f>VLOOKUP(B$5, config!$B$4:$F$14,2,FALSE) &amp; "_Single"</f>
+        <f>VLOOKUP(B$5, config!$B$4:$O$14,2,FALSE) &amp; "_Single"</f>
         <v>UC_NetZero_CO2_2050_Single</v>
       </c>
       <c r="C7" s="8" t="str">
-        <f>VLOOKUP(C$5, config!$B$4:$F$14,2,FALSE)</f>
+        <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F7,config!$B$6:$O$6,),FALSE)</f>
         <v>*CO2*,-*CO2S</v>
       </c>
       <c r="D7" s="8" t="str">
-        <f>VLOOKUP(D$5, config!$B$4:$F$14,2,FALSE)</f>
+        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F7,config!$B$6:$O$6,),FALSE)</f>
         <v>ENV</v>
       </c>
       <c r="F7" s="8">
-        <f>VLOOKUP(F$5, config!$B$4:$F$14,2,FALSE)</f>
-        <v>2025</v>
+        <v>2020</v>
       </c>
       <c r="G7" s="8" t="str">
-        <f>VLOOKUP(G$5, config!$B$4:$F$14,2,FALSE)</f>
+        <f>VLOOKUP(G$5, config!$B$4:$O$14,MATCH($F7,config!$B$6:$O$6,),FALSE)</f>
         <v>UP</v>
       </c>
       <c r="H7" s="8">
-        <f>VLOOKUP(H$5, config!$B$4:$F$14,2,FALSE)</f>
+        <f>VLOOKUP(H$5, config!$B$4:$O$14,MATCH($F7,config!$B$6:$O$6,),FALSE)</f>
         <v>1</v>
       </c>
       <c r="J7" s="8">
-        <f>VLOOKUP("Value", config!$B$4:$F$14,2,FALSE)</f>
-        <v>29191.91</v>
+        <f>VLOOKUP("Value", config!$B$4:$O$14,MATCH($F7,config!$B$6:$O$6,),FALSE)</f>
+        <v>33792</v>
       </c>
       <c r="K7" s="8" t="str">
-        <f>VLOOKUP(K$5, config!$B$4:$F$14,2,FALSE) &amp; " - Single"</f>
+        <f>VLOOKUP(K$5, config!$B$4:$O$14,2,FALSE) &amp; " - Single"</f>
         <v>Net Zero CO2 by 2050 - Single</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C8" s="8" t="str">
-        <f>VLOOKUP(C$5, config!$B$4:$F$14,2,FALSE)</f>
+        <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F8,config!$B$6:$O$6,),FALSE)</f>
         <v>*CO2*,-*CO2S</v>
       </c>
       <c r="D8" s="8" t="str">
-        <f>VLOOKUP(D$5, config!$B$4:$F$14,2,FALSE)</f>
+        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F8,config!$B$6:$O$6,),FALSE)</f>
         <v>ENV</v>
       </c>
       <c r="E8" s="8" t="str">
-        <f>VLOOKUP(E$5, config!$B$4:$F$14,2,FALSE)</f>
+        <f>VLOOKUP(E$5, config!$B$4:$O$14,MATCH($F8,config!$B$6:$O$6,),FALSE)</f>
         <v>T-A*INT*,T-NAV*</v>
       </c>
       <c r="F8" s="8">
-        <f>VLOOKUP(F$5, config!$B$4:$F$14,2,FALSE)</f>
-        <v>2025</v>
+        <f>F7</f>
+        <v>2020</v>
       </c>
       <c r="I8" s="8">
-        <f>VLOOKUP(I$5, config!$B$4:$F$14,2,FALSE)</f>
+        <f>VLOOKUP(I$5, config!$B$4:$O$14,MATCH($F8,config!$B$6:$O$6,),FALSE)</f>
         <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C9" s="8" t="str">
-        <f>VLOOKUP(C$5, config!$B$4:$F$14,3,FALSE)</f>
+        <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F9,config!$B$6:$O$6,),FALSE)</f>
         <v>*CO2*,-*CO2S</v>
       </c>
       <c r="D9" s="8" t="str">
-        <f>VLOOKUP(D$5, config!$B$4:$F$14,3,FALSE)</f>
+        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F9,config!$B$6:$O$6,),FALSE)</f>
         <v>ENV</v>
       </c>
       <c r="F9" s="8">
-        <f>VLOOKUP(F$5, config!$B$4:$F$14,3,FALSE)</f>
-        <v>2030</v>
+        <v>2021</v>
       </c>
       <c r="G9" s="8" t="str">
-        <f>VLOOKUP(G$5, config!$B$4:$F$14,3,FALSE)</f>
+        <f>VLOOKUP(G$5, config!$B$4:$O$14,MATCH($F9,config!$B$6:$O$6,),FALSE)</f>
         <v>UP</v>
       </c>
       <c r="H9" s="8">
-        <f>VLOOKUP(H$5, config!$B$4:$F$14,3,FALSE)</f>
+        <f>VLOOKUP(H$5, config!$B$4:$O$14,MATCH($F9,config!$B$6:$O$6,),FALSE)</f>
         <v>1</v>
       </c>
       <c r="J9" s="8">
-        <f>VLOOKUP("Value", config!$B$4:$F$14,3,FALSE)</f>
-        <v>17281.75</v>
+        <f>VLOOKUP("Value", config!$B$4:$O$14,MATCH($F9,config!$B$6:$O$6,),FALSE)</f>
+        <v>35644</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C10" s="8" t="str">
-        <f>VLOOKUP(C$5, config!$B$4:$F$14,3,FALSE)</f>
+        <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F10,config!$B$6:$O$6,),FALSE)</f>
         <v>*CO2*,-*CO2S</v>
       </c>
       <c r="D10" s="8" t="str">
-        <f>VLOOKUP(D$5, config!$B$4:$F$14,3,FALSE)</f>
+        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F10,config!$B$6:$O$6,),FALSE)</f>
         <v>ENV</v>
       </c>
       <c r="E10" s="8" t="str">
-        <f>VLOOKUP(E$5, config!$B$4:$F$14,3,FALSE)</f>
+        <f>VLOOKUP(E$5, config!$B$4:$O$14,MATCH($F10,config!$B$6:$O$6,),FALSE)</f>
         <v>T-A*INT*,T-NAV*</v>
       </c>
       <c r="F10" s="8">
-        <f>VLOOKUP(F$5, config!$B$4:$F$14,3,FALSE)</f>
-        <v>2030</v>
+        <f>F9</f>
+        <v>2021</v>
       </c>
       <c r="I10" s="8">
-        <f>VLOOKUP(I$5, config!$B$4:$F$14,3,FALSE)</f>
+        <f>VLOOKUP(I$5, config!$B$4:$O$14,MATCH($F10,config!$B$6:$O$6,),FALSE)</f>
         <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C11" s="8" t="str">
-        <f>VLOOKUP(C$5, config!$B$4:$F$14,4,FALSE)</f>
+        <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F11,config!$B$6:$O$6,),FALSE)</f>
         <v>*CO2*,-*CO2S</v>
       </c>
       <c r="D11" s="8" t="str">
-        <f>VLOOKUP(D$5, config!$B$4:$F$14,4,FALSE)</f>
+        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F11,config!$B$6:$O$6,),FALSE)</f>
         <v>ENV</v>
       </c>
       <c r="F11" s="8">
-        <f>VLOOKUP(F$5, config!$B$4:$F$14,4,FALSE)</f>
-        <v>2050</v>
+        <v>2022</v>
       </c>
       <c r="G11" s="8" t="str">
-        <f>VLOOKUP(G$5, config!$B$4:$F$14,4,FALSE)</f>
+        <f>VLOOKUP(G$5, config!$B$4:$O$14,MATCH($F11,config!$B$6:$O$6,),FALSE)</f>
         <v>UP</v>
       </c>
       <c r="H11" s="8">
-        <f>VLOOKUP(H$5, config!$B$4:$F$14,4,FALSE)</f>
+        <f>VLOOKUP(H$5, config!$B$4:$O$14,MATCH($F11,config!$B$6:$O$6,),FALSE)</f>
         <v>1</v>
       </c>
       <c r="J11" s="8">
-        <f>VLOOKUP("Value", config!$B$4:$F$14,4,FALSE)</f>
-        <v>0</v>
+        <f>VLOOKUP("Value", config!$B$4:$O$14,MATCH($F11,config!$B$6:$O$6,),FALSE)</f>
+        <v>36186</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C12" s="8" t="str">
-        <f>VLOOKUP(C$5, config!$B$4:$F$14,4,FALSE)</f>
+        <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F12,config!$B$6:$O$6,),FALSE)</f>
         <v>*CO2*,-*CO2S</v>
       </c>
       <c r="D12" s="8" t="str">
-        <f>VLOOKUP(D$5, config!$B$4:$F$14,4,FALSE)</f>
+        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F12,config!$B$6:$O$6,),FALSE)</f>
         <v>ENV</v>
       </c>
       <c r="E12" s="8" t="str">
-        <f>VLOOKUP(E$5, config!$B$4:$F$14,4,FALSE)</f>
+        <f>VLOOKUP(E$5, config!$B$4:$O$14,MATCH($F12,config!$B$6:$O$6,),FALSE)</f>
         <v>T-A*INT*,T-NAV*</v>
       </c>
       <c r="F12" s="8">
-        <f>VLOOKUP(F$5, config!$B$4:$F$14,4,FALSE)</f>
+        <f>F11</f>
+        <v>2022</v>
+      </c>
+      <c r="I12" s="8">
+        <f>VLOOKUP(I$5, config!$B$4:$O$14,MATCH($F12,config!$B$6:$O$6,),FALSE)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C13" s="8" t="str">
+        <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F13,config!$B$6:$O$6,),FALSE)</f>
+        <v>*CO2*,-*CO2S</v>
+      </c>
+      <c r="D13" s="8" t="str">
+        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F13,config!$B$6:$O$6,),FALSE)</f>
+        <v>ENV</v>
+      </c>
+      <c r="F13" s="8">
+        <v>2023</v>
+      </c>
+      <c r="G13" s="8" t="str">
+        <f>VLOOKUP(G$5, config!$B$4:$O$14,MATCH($F13,config!$B$6:$O$6,),FALSE)</f>
+        <v>UP</v>
+      </c>
+      <c r="H13" s="8">
+        <f>VLOOKUP(H$5, config!$B$4:$O$14,MATCH($F13,config!$B$6:$O$6,),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="J13" s="8">
+        <f>VLOOKUP("Value", config!$B$4:$O$14,MATCH($F13,config!$B$6:$O$6,),FALSE)</f>
+        <v>35729</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C14" s="8" t="str">
+        <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F14,config!$B$6:$O$6,),FALSE)</f>
+        <v>*CO2*,-*CO2S</v>
+      </c>
+      <c r="D14" s="8" t="str">
+        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F14,config!$B$6:$O$6,),FALSE)</f>
+        <v>ENV</v>
+      </c>
+      <c r="E14" s="8" t="str">
+        <f>VLOOKUP(E$5, config!$B$4:$O$14,MATCH($F14,config!$B$6:$O$6,),FALSE)</f>
+        <v>T-A*INT*,T-NAV*</v>
+      </c>
+      <c r="F14" s="8">
+        <f>F13</f>
+        <v>2023</v>
+      </c>
+      <c r="I14" s="8">
+        <f>VLOOKUP(I$5, config!$B$4:$O$14,MATCH($F14,config!$B$6:$O$6,),FALSE)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C15" s="8" t="str">
+        <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F15,config!$B$6:$O$6,),FALSE)</f>
+        <v>*CO2*,-*CO2S</v>
+      </c>
+      <c r="D15" s="8" t="str">
+        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F15,config!$B$6:$O$6,),FALSE)</f>
+        <v>ENV</v>
+      </c>
+      <c r="F15" s="8">
+        <v>2024</v>
+      </c>
+      <c r="G15" s="8" t="str">
+        <f>VLOOKUP(G$5, config!$B$4:$O$14,MATCH($F15,config!$B$6:$O$6,),FALSE)</f>
+        <v>UP</v>
+      </c>
+      <c r="H15" s="8">
+        <f>VLOOKUP(H$5, config!$B$4:$O$14,MATCH($F15,config!$B$6:$O$6,),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="J15" s="8">
+        <f>VLOOKUP("Value", config!$B$4:$O$14,MATCH($F15,config!$B$6:$O$6,),FALSE)</f>
+        <v>32216</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C16" s="8" t="str">
+        <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F16,config!$B$6:$O$6,),FALSE)</f>
+        <v>*CO2*,-*CO2S</v>
+      </c>
+      <c r="D16" s="8" t="str">
+        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F16,config!$B$6:$O$6,),FALSE)</f>
+        <v>ENV</v>
+      </c>
+      <c r="E16" s="8" t="str">
+        <f>VLOOKUP(E$5, config!$B$4:$O$14,MATCH($F16,config!$B$6:$O$6,),FALSE)</f>
+        <v>T-A*INT*,T-NAV*</v>
+      </c>
+      <c r="F16" s="8">
+        <f>F15</f>
+        <v>2024</v>
+      </c>
+      <c r="I16" s="8">
+        <f>VLOOKUP(I$5, config!$B$4:$O$14,MATCH($F16,config!$B$6:$O$6,),FALSE)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C17" s="8" t="str">
+        <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F17,config!$B$6:$O$6,),FALSE)</f>
+        <v>*CO2*,-*CO2S</v>
+      </c>
+      <c r="D17" s="8" t="str">
+        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F17,config!$B$6:$O$6,),FALSE)</f>
+        <v>ENV</v>
+      </c>
+      <c r="F17" s="8">
+        <v>2025</v>
+      </c>
+      <c r="G17" s="8" t="str">
+        <f>VLOOKUP(G$5, config!$B$4:$O$14,MATCH($F17,config!$B$6:$O$6,),FALSE)</f>
+        <v>UP</v>
+      </c>
+      <c r="H17" s="8">
+        <f>VLOOKUP(H$5, config!$B$4:$O$14,MATCH($F17,config!$B$6:$O$6,),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="J17" s="8">
+        <f>VLOOKUP("Value", config!$B$4:$O$14,MATCH($F17,config!$B$6:$O$6,),FALSE)</f>
+        <v>29049</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C18" s="8" t="str">
+        <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F18,config!$B$6:$O$6,),FALSE)</f>
+        <v>*CO2*,-*CO2S</v>
+      </c>
+      <c r="D18" s="8" t="str">
+        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F18,config!$B$6:$O$6,),FALSE)</f>
+        <v>ENV</v>
+      </c>
+      <c r="E18" s="8" t="str">
+        <f>VLOOKUP(E$5, config!$B$4:$O$14,MATCH($F18,config!$B$6:$O$6,),FALSE)</f>
+        <v>T-A*INT*,T-NAV*</v>
+      </c>
+      <c r="F18" s="8">
+        <f>F17</f>
+        <v>2025</v>
+      </c>
+      <c r="I18" s="8">
+        <f>VLOOKUP(I$5, config!$B$4:$O$14,MATCH($F18,config!$B$6:$O$6,),FALSE)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C19" s="8" t="str">
+        <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F19,config!$B$6:$O$6,),FALSE)</f>
+        <v>*CO2*,-*CO2S</v>
+      </c>
+      <c r="D19" s="8" t="str">
+        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F19,config!$B$6:$O$6,),FALSE)</f>
+        <v>ENV</v>
+      </c>
+      <c r="F19" s="8">
+        <v>2026</v>
+      </c>
+      <c r="G19" s="8" t="str">
+        <f>VLOOKUP(G$5, config!$B$4:$O$14,MATCH($F19,config!$B$6:$O$6,),FALSE)</f>
+        <v>UP</v>
+      </c>
+      <c r="H19" s="8">
+        <f>VLOOKUP(H$5, config!$B$4:$O$14,MATCH($F19,config!$B$6:$O$6,),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="J19" s="8">
+        <f>VLOOKUP("Value", config!$B$4:$O$14,MATCH($F19,config!$B$6:$O$6,),FALSE)</f>
+        <v>26193</v>
+      </c>
+    </row>
+    <row r="20" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C20" s="8" t="str">
+        <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F20,config!$B$6:$O$6,),FALSE)</f>
+        <v>*CO2*,-*CO2S</v>
+      </c>
+      <c r="D20" s="8" t="str">
+        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F20,config!$B$6:$O$6,),FALSE)</f>
+        <v>ENV</v>
+      </c>
+      <c r="E20" s="8" t="str">
+        <f>VLOOKUP(E$5, config!$B$4:$O$14,MATCH($F20,config!$B$6:$O$6,),FALSE)</f>
+        <v>T-A*INT*,T-NAV*</v>
+      </c>
+      <c r="F20" s="8">
+        <f>F19</f>
+        <v>2026</v>
+      </c>
+      <c r="I20" s="8">
+        <f>VLOOKUP(I$5, config!$B$4:$O$14,MATCH($F20,config!$B$6:$O$6,),FALSE)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C21" s="8" t="str">
+        <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F21,config!$B$6:$O$6,),FALSE)</f>
+        <v>*CO2*,-*CO2S</v>
+      </c>
+      <c r="D21" s="8" t="str">
+        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F21,config!$B$6:$O$6,),FALSE)</f>
+        <v>ENV</v>
+      </c>
+      <c r="F21" s="8">
+        <v>2027</v>
+      </c>
+      <c r="G21" s="8" t="str">
+        <f>VLOOKUP(G$5, config!$B$4:$O$14,MATCH($F21,config!$B$6:$O$6,),FALSE)</f>
+        <v>UP</v>
+      </c>
+      <c r="H21" s="8">
+        <f>VLOOKUP(H$5, config!$B$4:$O$14,MATCH($F21,config!$B$6:$O$6,),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="J21" s="8">
+        <f>VLOOKUP("Value", config!$B$4:$O$14,MATCH($F21,config!$B$6:$O$6,),FALSE)</f>
+        <v>23618</v>
+      </c>
+    </row>
+    <row r="22" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C22" s="8" t="str">
+        <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F22,config!$B$6:$O$6,),FALSE)</f>
+        <v>*CO2*,-*CO2S</v>
+      </c>
+      <c r="D22" s="8" t="str">
+        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F22,config!$B$6:$O$6,),FALSE)</f>
+        <v>ENV</v>
+      </c>
+      <c r="E22" s="8" t="str">
+        <f>VLOOKUP(E$5, config!$B$4:$O$14,MATCH($F22,config!$B$6:$O$6,),FALSE)</f>
+        <v>T-A*INT*,T-NAV*</v>
+      </c>
+      <c r="F22" s="8">
+        <f>F21</f>
+        <v>2027</v>
+      </c>
+      <c r="I22" s="8">
+        <f>VLOOKUP(I$5, config!$B$4:$O$14,MATCH($F22,config!$B$6:$O$6,),FALSE)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C23" s="8" t="str">
+        <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F23,config!$B$6:$O$6,),FALSE)</f>
+        <v>*CO2*,-*CO2S</v>
+      </c>
+      <c r="D23" s="8" t="str">
+        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F23,config!$B$6:$O$6,),FALSE)</f>
+        <v>ENV</v>
+      </c>
+      <c r="F23" s="8">
+        <v>2028</v>
+      </c>
+      <c r="G23" s="8" t="str">
+        <f>VLOOKUP(G$5, config!$B$4:$O$14,MATCH($F23,config!$B$6:$O$6,),FALSE)</f>
+        <v>UP</v>
+      </c>
+      <c r="H23" s="8">
+        <f>VLOOKUP(H$5, config!$B$4:$O$14,MATCH($F23,config!$B$6:$O$6,),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="J23" s="8">
+        <f>VLOOKUP("Value", config!$B$4:$O$14,MATCH($F23,config!$B$6:$O$6,),FALSE)</f>
+        <v>21296</v>
+      </c>
+    </row>
+    <row r="24" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C24" s="8" t="str">
+        <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F24,config!$B$6:$O$6,),FALSE)</f>
+        <v>*CO2*,-*CO2S</v>
+      </c>
+      <c r="D24" s="8" t="str">
+        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F24,config!$B$6:$O$6,),FALSE)</f>
+        <v>ENV</v>
+      </c>
+      <c r="E24" s="8" t="str">
+        <f>VLOOKUP(E$5, config!$B$4:$O$14,MATCH($F24,config!$B$6:$O$6,),FALSE)</f>
+        <v>T-A*INT*,T-NAV*</v>
+      </c>
+      <c r="F24" s="8">
+        <f>F23</f>
+        <v>2028</v>
+      </c>
+      <c r="I24" s="8">
+        <f>VLOOKUP(I$5, config!$B$4:$O$14,MATCH($F24,config!$B$6:$O$6,),FALSE)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C25" s="8" t="str">
+        <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F25,config!$B$6:$O$6,),FALSE)</f>
+        <v>*CO2*,-*CO2S</v>
+      </c>
+      <c r="D25" s="8" t="str">
+        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F25,config!$B$6:$O$6,),FALSE)</f>
+        <v>ENV</v>
+      </c>
+      <c r="F25" s="8">
+        <v>2029</v>
+      </c>
+      <c r="G25" s="8" t="str">
+        <f>VLOOKUP(G$5, config!$B$4:$O$14,MATCH($F25,config!$B$6:$O$6,),FALSE)</f>
+        <v>UP</v>
+      </c>
+      <c r="H25" s="8">
+        <f>VLOOKUP(H$5, config!$B$4:$O$14,MATCH($F25,config!$B$6:$O$6,),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="J25" s="8">
+        <f>VLOOKUP("Value", config!$B$4:$O$14,MATCH($F25,config!$B$6:$O$6,),FALSE)</f>
+        <v>19202</v>
+      </c>
+    </row>
+    <row r="26" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C26" s="8" t="str">
+        <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F26,config!$B$6:$O$6,),FALSE)</f>
+        <v>*CO2*,-*CO2S</v>
+      </c>
+      <c r="D26" s="8" t="str">
+        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F26,config!$B$6:$O$6,),FALSE)</f>
+        <v>ENV</v>
+      </c>
+      <c r="E26" s="8" t="str">
+        <f>VLOOKUP(E$5, config!$B$4:$O$14,MATCH($F26,config!$B$6:$O$6,),FALSE)</f>
+        <v>T-A*INT*,T-NAV*</v>
+      </c>
+      <c r="F26" s="8">
+        <f>F25</f>
+        <v>2029</v>
+      </c>
+      <c r="I26" s="8">
+        <f>VLOOKUP(I$5, config!$B$4:$O$14,MATCH($F26,config!$B$6:$O$6,),FALSE)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="27" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C27" s="8" t="str">
+        <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F27,config!$B$6:$O$6,),FALSE)</f>
+        <v>*CO2*,-*CO2S</v>
+      </c>
+      <c r="D27" s="8" t="str">
+        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F27,config!$B$6:$O$6,),FALSE)</f>
+        <v>ENV</v>
+      </c>
+      <c r="F27" s="8">
+        <v>2030</v>
+      </c>
+      <c r="G27" s="8" t="str">
+        <f>VLOOKUP(G$5, config!$B$4:$O$14,MATCH($F27,config!$B$6:$O$6,),FALSE)</f>
+        <v>UP</v>
+      </c>
+      <c r="H27" s="8">
+        <f>VLOOKUP(H$5, config!$B$4:$O$14,MATCH($F27,config!$B$6:$O$6,),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="J27" s="8">
+        <f>VLOOKUP("Value", config!$B$4:$O$14,MATCH($F27,config!$B$6:$O$6,),FALSE)</f>
+        <v>17314</v>
+      </c>
+    </row>
+    <row r="28" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C28" s="8" t="str">
+        <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F28,config!$B$6:$O$6,),FALSE)</f>
+        <v>*CO2*,-*CO2S</v>
+      </c>
+      <c r="D28" s="8" t="str">
+        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F28,config!$B$6:$O$6,),FALSE)</f>
+        <v>ENV</v>
+      </c>
+      <c r="E28" s="8" t="str">
+        <f>VLOOKUP(E$5, config!$B$4:$O$14,MATCH($F28,config!$B$6:$O$6,),FALSE)</f>
+        <v>T-A*INT*,T-NAV*</v>
+      </c>
+      <c r="F28" s="8">
+        <f>F27</f>
+        <v>2030</v>
+      </c>
+      <c r="I28" s="8">
+        <f>VLOOKUP(I$5, config!$B$4:$O$14,MATCH($F28,config!$B$6:$O$6,),FALSE)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="29" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C29" s="8" t="str">
+        <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F29,config!$B$6:$O$6,),FALSE)</f>
+        <v>*CO2*,-*CO2S</v>
+      </c>
+      <c r="D29" s="8" t="str">
+        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F29,config!$B$6:$O$6,),FALSE)</f>
+        <v>ENV</v>
+      </c>
+      <c r="F29" s="8">
         <v>2050</v>
       </c>
-      <c r="I12" s="8">
-        <f>VLOOKUP(I$5, config!$B$4:$F$14,4,FALSE)</f>
+      <c r="G29" s="8" t="str">
+        <f>VLOOKUP(G$5, config!$B$4:$O$14,MATCH($F29,config!$B$6:$O$6,),FALSE)</f>
+        <v>UP</v>
+      </c>
+      <c r="H29" s="8">
+        <f>VLOOKUP(H$5, config!$B$4:$O$14,MATCH($F29,config!$B$6:$O$6,),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="J29" s="8">
+        <f>VLOOKUP("Value", config!$B$4:$O$14,MATCH($F29,config!$B$6:$O$6,),FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C30" s="8" t="str">
+        <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F30,config!$B$6:$O$6,),FALSE)</f>
+        <v>*CO2*,-*CO2S</v>
+      </c>
+      <c r="D30" s="8" t="str">
+        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F30,config!$B$6:$O$6,),FALSE)</f>
+        <v>ENV</v>
+      </c>
+      <c r="E30" s="8" t="str">
+        <f>VLOOKUP(E$5, config!$B$4:$O$14,MATCH($F30,config!$B$6:$O$6,),FALSE)</f>
+        <v>T-A*INT*,T-NAV*</v>
+      </c>
+      <c r="F30" s="8">
+        <f>F29</f>
+        <v>2050</v>
+      </c>
+      <c r="I30" s="8">
+        <f>VLOOKUP(I$5, config!$B$4:$O$14,MATCH($F30,config!$B$6:$O$6,),FALSE)</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F13" s="8">
-        <f>VLOOKUP(F$5, config!$B$4:$F$14,5,FALSE)</f>
+    <row r="31" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="F31" s="8">
         <v>0</v>
       </c>
-      <c r="J13" s="8">
-        <f>VLOOKUP("Value", config!$B$4:$F$14,5,FALSE)</f>
+      <c r="J31" s="8">
+        <f>VLOOKUP("Value", config!$B$4:$O$14,MATCH($F31,config!$B$6:$O$6,),FALSE)</f>
         <v>5</v>
       </c>
     </row>
@@ -2491,10 +3179,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6EC2971-91FC-4261-B0BB-58C7F43C1746}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2555,13 +3243,13 @@
         <v>0</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="K5" s="12" t="s">
         <v>63</v>
@@ -2585,163 +3273,581 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="str">
-        <f>VLOOKUP(B$5, config!$B$4:$F$14,2,FALSE) &amp; "_Multi"</f>
+        <f>VLOOKUP(B$5, config!$B$4:$O$14,2,FALSE) &amp; "_Multi"</f>
         <v>UC_NetZero_CO2_2050_Multi</v>
       </c>
       <c r="C7" s="8" t="str">
-        <f>VLOOKUP(C$5, config!$B$4:$F$14,2,FALSE)</f>
+        <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F7,config!$B$6:$O$6,),FALSE)</f>
         <v>*CO2*,-*CO2S</v>
       </c>
       <c r="D7" s="8" t="str">
-        <f>VLOOKUP(D$5, config!$B$4:$F$14,2,FALSE)</f>
+        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F7,config!$B$6:$O$6,),FALSE)</f>
         <v>ENV</v>
       </c>
       <c r="F7" s="8">
-        <f>VLOOKUP(F$5, config!$B$4:$F$14,2,FALSE)</f>
-        <v>2025</v>
+        <v>2020</v>
       </c>
       <c r="G7" s="8" t="str">
-        <f>VLOOKUP(G$5, config!$B$4:$F$14,2,FALSE)</f>
+        <f>VLOOKUP(G$5, config!$B$4:$O$14,MATCH($F7,config!$B$6:$O$6,),FALSE)</f>
         <v>UP</v>
       </c>
       <c r="H7" s="8">
-        <f>VLOOKUP(H$5, config!$B$4:$F$14,2,FALSE)</f>
+        <f>VLOOKUP(H$5, config!$B$4:$O$14,MATCH($F7,config!$B$6:$O$6,),FALSE)</f>
         <v>1</v>
       </c>
       <c r="J7" s="8">
-        <f>VLOOKUP("Value", config!$B$4:$F$14,2,FALSE)</f>
-        <v>29191.91</v>
+        <f>VLOOKUP("Value", config!$B$4:$O$14,MATCH($F7,config!$B$6:$O$6,),FALSE)</f>
+        <v>33792</v>
       </c>
       <c r="K7" s="8" t="str">
-        <f>VLOOKUP(K$5, config!$B$4:$F$14,2,FALSE) &amp; " - Multi"</f>
+        <f>VLOOKUP(K$5, config!$B$4:$O$14,2,FALSE) &amp; " - Multi"</f>
         <v>Net Zero CO2 by 2050 - Multi</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C8" s="8" t="str">
-        <f>VLOOKUP(C$5, config!$B$4:$F$14,2,FALSE)</f>
+        <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F8,config!$B$6:$O$6,),FALSE)</f>
         <v>*CO2*,-*CO2S</v>
       </c>
       <c r="D8" s="8" t="str">
-        <f>VLOOKUP(D$5, config!$B$4:$F$14,2,FALSE)</f>
+        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F8,config!$B$6:$O$6,),FALSE)</f>
         <v>ENV</v>
       </c>
       <c r="E8" s="8" t="str">
-        <f>VLOOKUP(E$5, config!$B$4:$F$14,2,FALSE)</f>
+        <f>VLOOKUP(E$5, config!$B$4:$O$14,MATCH($F8,config!$B$6:$O$6,),FALSE)</f>
         <v>T-A*INT*,T-NAV*</v>
       </c>
       <c r="F8" s="8">
-        <f>VLOOKUP(F$5, config!$B$4:$F$14,2,FALSE)</f>
-        <v>2025</v>
+        <f>F7</f>
+        <v>2020</v>
       </c>
       <c r="I8" s="8">
-        <f>VLOOKUP(I$5, config!$B$4:$F$14,2,FALSE)</f>
+        <f>VLOOKUP(I$5, config!$B$4:$O$14,MATCH($F8,config!$B$6:$O$6,),FALSE)</f>
         <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C9" s="8" t="str">
-        <f>VLOOKUP(C$5, config!$B$4:$F$14,3,FALSE)</f>
+        <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F9,config!$B$6:$O$6,),FALSE)</f>
         <v>*CO2*,-*CO2S</v>
       </c>
       <c r="D9" s="8" t="str">
-        <f>VLOOKUP(D$5, config!$B$4:$F$14,3,FALSE)</f>
+        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F9,config!$B$6:$O$6,),FALSE)</f>
         <v>ENV</v>
       </c>
       <c r="F9" s="8">
-        <f>VLOOKUP(F$5, config!$B$4:$F$14,3,FALSE)</f>
-        <v>2030</v>
+        <v>2021</v>
       </c>
       <c r="G9" s="8" t="str">
-        <f>VLOOKUP(G$5, config!$B$4:$F$14,3,FALSE)</f>
+        <f>VLOOKUP(G$5, config!$B$4:$O$14,MATCH($F9,config!$B$6:$O$6,),FALSE)</f>
         <v>UP</v>
       </c>
       <c r="H9" s="8">
-        <f>VLOOKUP(H$5, config!$B$4:$F$14,3,FALSE)</f>
+        <f>VLOOKUP(H$5, config!$B$4:$O$14,MATCH($F9,config!$B$6:$O$6,),FALSE)</f>
         <v>1</v>
       </c>
       <c r="J9" s="8">
-        <f>VLOOKUP("Value", config!$B$4:$F$14,3,FALSE)</f>
-        <v>17281.75</v>
+        <f>VLOOKUP("Value", config!$B$4:$O$14,MATCH($F9,config!$B$6:$O$6,),FALSE)</f>
+        <v>35644</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C10" s="8" t="str">
-        <f>VLOOKUP(C$5, config!$B$4:$F$14,3,FALSE)</f>
+        <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F10,config!$B$6:$O$6,),FALSE)</f>
         <v>*CO2*,-*CO2S</v>
       </c>
       <c r="D10" s="8" t="str">
-        <f>VLOOKUP(D$5, config!$B$4:$F$14,3,FALSE)</f>
+        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F10,config!$B$6:$O$6,),FALSE)</f>
         <v>ENV</v>
       </c>
       <c r="E10" s="8" t="str">
-        <f>VLOOKUP(E$5, config!$B$4:$F$14,3,FALSE)</f>
+        <f>VLOOKUP(E$5, config!$B$4:$O$14,MATCH($F10,config!$B$6:$O$6,),FALSE)</f>
         <v>T-A*INT*,T-NAV*</v>
       </c>
       <c r="F10" s="8">
-        <f>VLOOKUP(F$5, config!$B$4:$F$14,3,FALSE)</f>
-        <v>2030</v>
+        <f>F9</f>
+        <v>2021</v>
       </c>
       <c r="I10" s="8">
-        <f>VLOOKUP(I$5, config!$B$4:$F$14,3,FALSE)</f>
+        <f>VLOOKUP(I$5, config!$B$4:$O$14,MATCH($F10,config!$B$6:$O$6,),FALSE)</f>
         <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C11" s="8" t="str">
-        <f>VLOOKUP(C$5, config!$B$4:$F$14,4,FALSE)</f>
+        <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F11,config!$B$6:$O$6,),FALSE)</f>
         <v>*CO2*,-*CO2S</v>
       </c>
       <c r="D11" s="8" t="str">
-        <f>VLOOKUP(D$5, config!$B$4:$F$14,4,FALSE)</f>
+        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F11,config!$B$6:$O$6,),FALSE)</f>
         <v>ENV</v>
       </c>
       <c r="F11" s="8">
-        <f>VLOOKUP(F$5, config!$B$4:$F$14,4,FALSE)</f>
-        <v>2050</v>
+        <v>2022</v>
       </c>
       <c r="G11" s="8" t="str">
-        <f>VLOOKUP(G$5, config!$B$4:$F$14,4,FALSE)</f>
+        <f>VLOOKUP(G$5, config!$B$4:$O$14,MATCH($F11,config!$B$6:$O$6,),FALSE)</f>
         <v>UP</v>
       </c>
       <c r="H11" s="8">
-        <f>VLOOKUP(H$5, config!$B$4:$F$14,4,FALSE)</f>
+        <f>VLOOKUP(H$5, config!$B$4:$O$14,MATCH($F11,config!$B$6:$O$6,),FALSE)</f>
         <v>1</v>
       </c>
       <c r="J11" s="8">
-        <f>VLOOKUP("Value", config!$B$4:$F$14,4,FALSE)</f>
-        <v>0</v>
+        <f>VLOOKUP("Value", config!$B$4:$O$14,MATCH($F11,config!$B$6:$O$6,),FALSE)</f>
+        <v>36186</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C12" s="8" t="str">
-        <f>VLOOKUP(C$5, config!$B$4:$F$14,4,FALSE)</f>
+        <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F12,config!$B$6:$O$6,),FALSE)</f>
         <v>*CO2*,-*CO2S</v>
       </c>
       <c r="D12" s="8" t="str">
-        <f>VLOOKUP(D$5, config!$B$4:$F$14,4,FALSE)</f>
+        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F12,config!$B$6:$O$6,),FALSE)</f>
         <v>ENV</v>
       </c>
       <c r="E12" s="8" t="str">
-        <f>VLOOKUP(E$5, config!$B$4:$F$14,4,FALSE)</f>
+        <f>VLOOKUP(E$5, config!$B$4:$O$14,MATCH($F12,config!$B$6:$O$6,),FALSE)</f>
         <v>T-A*INT*,T-NAV*</v>
       </c>
       <c r="F12" s="8">
-        <f>VLOOKUP(F$5, config!$B$4:$F$14,4,FALSE)</f>
+        <f>F11</f>
+        <v>2022</v>
+      </c>
+      <c r="I12" s="8">
+        <f>VLOOKUP(I$5, config!$B$4:$O$14,MATCH($F12,config!$B$6:$O$6,),FALSE)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C13" s="8" t="str">
+        <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F13,config!$B$6:$O$6,),FALSE)</f>
+        <v>*CO2*,-*CO2S</v>
+      </c>
+      <c r="D13" s="8" t="str">
+        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F13,config!$B$6:$O$6,),FALSE)</f>
+        <v>ENV</v>
+      </c>
+      <c r="F13" s="8">
+        <v>2023</v>
+      </c>
+      <c r="G13" s="8" t="str">
+        <f>VLOOKUP(G$5, config!$B$4:$O$14,MATCH($F13,config!$B$6:$O$6,),FALSE)</f>
+        <v>UP</v>
+      </c>
+      <c r="H13" s="8">
+        <f>VLOOKUP(H$5, config!$B$4:$O$14,MATCH($F13,config!$B$6:$O$6,),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="J13" s="8">
+        <f>VLOOKUP("Value", config!$B$4:$O$14,MATCH($F13,config!$B$6:$O$6,),FALSE)</f>
+        <v>35729</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C14" s="8" t="str">
+        <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F14,config!$B$6:$O$6,),FALSE)</f>
+        <v>*CO2*,-*CO2S</v>
+      </c>
+      <c r="D14" s="8" t="str">
+        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F14,config!$B$6:$O$6,),FALSE)</f>
+        <v>ENV</v>
+      </c>
+      <c r="E14" s="8" t="str">
+        <f>VLOOKUP(E$5, config!$B$4:$O$14,MATCH($F14,config!$B$6:$O$6,),FALSE)</f>
+        <v>T-A*INT*,T-NAV*</v>
+      </c>
+      <c r="F14" s="8">
+        <f>F13</f>
+        <v>2023</v>
+      </c>
+      <c r="I14" s="8">
+        <f>VLOOKUP(I$5, config!$B$4:$O$14,MATCH($F14,config!$B$6:$O$6,),FALSE)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C15" s="8" t="str">
+        <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F15,config!$B$6:$O$6,),FALSE)</f>
+        <v>*CO2*,-*CO2S</v>
+      </c>
+      <c r="D15" s="8" t="str">
+        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F15,config!$B$6:$O$6,),FALSE)</f>
+        <v>ENV</v>
+      </c>
+      <c r="F15" s="8">
+        <v>2024</v>
+      </c>
+      <c r="G15" s="8" t="str">
+        <f>VLOOKUP(G$5, config!$B$4:$O$14,MATCH($F15,config!$B$6:$O$6,),FALSE)</f>
+        <v>UP</v>
+      </c>
+      <c r="H15" s="8">
+        <f>VLOOKUP(H$5, config!$B$4:$O$14,MATCH($F15,config!$B$6:$O$6,),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="J15" s="8">
+        <f>VLOOKUP("Value", config!$B$4:$O$14,MATCH($F15,config!$B$6:$O$6,),FALSE)</f>
+        <v>32216</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C16" s="8" t="str">
+        <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F16,config!$B$6:$O$6,),FALSE)</f>
+        <v>*CO2*,-*CO2S</v>
+      </c>
+      <c r="D16" s="8" t="str">
+        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F16,config!$B$6:$O$6,),FALSE)</f>
+        <v>ENV</v>
+      </c>
+      <c r="E16" s="8" t="str">
+        <f>VLOOKUP(E$5, config!$B$4:$O$14,MATCH($F16,config!$B$6:$O$6,),FALSE)</f>
+        <v>T-A*INT*,T-NAV*</v>
+      </c>
+      <c r="F16" s="8">
+        <f>F15</f>
+        <v>2024</v>
+      </c>
+      <c r="I16" s="8">
+        <f>VLOOKUP(I$5, config!$B$4:$O$14,MATCH($F16,config!$B$6:$O$6,),FALSE)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C17" s="8" t="str">
+        <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F17,config!$B$6:$O$6,),FALSE)</f>
+        <v>*CO2*,-*CO2S</v>
+      </c>
+      <c r="D17" s="8" t="str">
+        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F17,config!$B$6:$O$6,),FALSE)</f>
+        <v>ENV</v>
+      </c>
+      <c r="F17" s="8">
+        <v>2025</v>
+      </c>
+      <c r="G17" s="8" t="str">
+        <f>VLOOKUP(G$5, config!$B$4:$O$14,MATCH($F17,config!$B$6:$O$6,),FALSE)</f>
+        <v>UP</v>
+      </c>
+      <c r="H17" s="8">
+        <f>VLOOKUP(H$5, config!$B$4:$O$14,MATCH($F17,config!$B$6:$O$6,),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="J17" s="8">
+        <f>VLOOKUP("Value", config!$B$4:$O$14,MATCH($F17,config!$B$6:$O$6,),FALSE)</f>
+        <v>29049</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C18" s="8" t="str">
+        <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F18,config!$B$6:$O$6,),FALSE)</f>
+        <v>*CO2*,-*CO2S</v>
+      </c>
+      <c r="D18" s="8" t="str">
+        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F18,config!$B$6:$O$6,),FALSE)</f>
+        <v>ENV</v>
+      </c>
+      <c r="E18" s="8" t="str">
+        <f>VLOOKUP(E$5, config!$B$4:$O$14,MATCH($F18,config!$B$6:$O$6,),FALSE)</f>
+        <v>T-A*INT*,T-NAV*</v>
+      </c>
+      <c r="F18" s="8">
+        <f>F17</f>
+        <v>2025</v>
+      </c>
+      <c r="I18" s="8">
+        <f>VLOOKUP(I$5, config!$B$4:$O$14,MATCH($F18,config!$B$6:$O$6,),FALSE)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C19" s="8" t="str">
+        <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F19,config!$B$6:$O$6,),FALSE)</f>
+        <v>*CO2*,-*CO2S</v>
+      </c>
+      <c r="D19" s="8" t="str">
+        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F19,config!$B$6:$O$6,),FALSE)</f>
+        <v>ENV</v>
+      </c>
+      <c r="F19" s="8">
+        <v>2026</v>
+      </c>
+      <c r="G19" s="8" t="str">
+        <f>VLOOKUP(G$5, config!$B$4:$O$14,MATCH($F19,config!$B$6:$O$6,),FALSE)</f>
+        <v>UP</v>
+      </c>
+      <c r="H19" s="8">
+        <f>VLOOKUP(H$5, config!$B$4:$O$14,MATCH($F19,config!$B$6:$O$6,),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="J19" s="8">
+        <f>VLOOKUP("Value", config!$B$4:$O$14,MATCH($F19,config!$B$6:$O$6,),FALSE)</f>
+        <v>26193</v>
+      </c>
+    </row>
+    <row r="20" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C20" s="8" t="str">
+        <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F20,config!$B$6:$O$6,),FALSE)</f>
+        <v>*CO2*,-*CO2S</v>
+      </c>
+      <c r="D20" s="8" t="str">
+        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F20,config!$B$6:$O$6,),FALSE)</f>
+        <v>ENV</v>
+      </c>
+      <c r="E20" s="8" t="str">
+        <f>VLOOKUP(E$5, config!$B$4:$O$14,MATCH($F20,config!$B$6:$O$6,),FALSE)</f>
+        <v>T-A*INT*,T-NAV*</v>
+      </c>
+      <c r="F20" s="8">
+        <f>F19</f>
+        <v>2026</v>
+      </c>
+      <c r="I20" s="8">
+        <f>VLOOKUP(I$5, config!$B$4:$O$14,MATCH($F20,config!$B$6:$O$6,),FALSE)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C21" s="8" t="str">
+        <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F21,config!$B$6:$O$6,),FALSE)</f>
+        <v>*CO2*,-*CO2S</v>
+      </c>
+      <c r="D21" s="8" t="str">
+        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F21,config!$B$6:$O$6,),FALSE)</f>
+        <v>ENV</v>
+      </c>
+      <c r="F21" s="8">
+        <v>2027</v>
+      </c>
+      <c r="G21" s="8" t="str">
+        <f>VLOOKUP(G$5, config!$B$4:$O$14,MATCH($F21,config!$B$6:$O$6,),FALSE)</f>
+        <v>UP</v>
+      </c>
+      <c r="H21" s="8">
+        <f>VLOOKUP(H$5, config!$B$4:$O$14,MATCH($F21,config!$B$6:$O$6,),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="J21" s="8">
+        <f>VLOOKUP("Value", config!$B$4:$O$14,MATCH($F21,config!$B$6:$O$6,),FALSE)</f>
+        <v>23618</v>
+      </c>
+    </row>
+    <row r="22" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C22" s="8" t="str">
+        <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F22,config!$B$6:$O$6,),FALSE)</f>
+        <v>*CO2*,-*CO2S</v>
+      </c>
+      <c r="D22" s="8" t="str">
+        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F22,config!$B$6:$O$6,),FALSE)</f>
+        <v>ENV</v>
+      </c>
+      <c r="E22" s="8" t="str">
+        <f>VLOOKUP(E$5, config!$B$4:$O$14,MATCH($F22,config!$B$6:$O$6,),FALSE)</f>
+        <v>T-A*INT*,T-NAV*</v>
+      </c>
+      <c r="F22" s="8">
+        <f>F21</f>
+        <v>2027</v>
+      </c>
+      <c r="I22" s="8">
+        <f>VLOOKUP(I$5, config!$B$4:$O$14,MATCH($F22,config!$B$6:$O$6,),FALSE)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C23" s="8" t="str">
+        <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F23,config!$B$6:$O$6,),FALSE)</f>
+        <v>*CO2*,-*CO2S</v>
+      </c>
+      <c r="D23" s="8" t="str">
+        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F23,config!$B$6:$O$6,),FALSE)</f>
+        <v>ENV</v>
+      </c>
+      <c r="F23" s="8">
+        <v>2028</v>
+      </c>
+      <c r="G23" s="8" t="str">
+        <f>VLOOKUP(G$5, config!$B$4:$O$14,MATCH($F23,config!$B$6:$O$6,),FALSE)</f>
+        <v>UP</v>
+      </c>
+      <c r="H23" s="8">
+        <f>VLOOKUP(H$5, config!$B$4:$O$14,MATCH($F23,config!$B$6:$O$6,),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="J23" s="8">
+        <f>VLOOKUP("Value", config!$B$4:$O$14,MATCH($F23,config!$B$6:$O$6,),FALSE)</f>
+        <v>21296</v>
+      </c>
+    </row>
+    <row r="24" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C24" s="8" t="str">
+        <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F24,config!$B$6:$O$6,),FALSE)</f>
+        <v>*CO2*,-*CO2S</v>
+      </c>
+      <c r="D24" s="8" t="str">
+        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F24,config!$B$6:$O$6,),FALSE)</f>
+        <v>ENV</v>
+      </c>
+      <c r="E24" s="8" t="str">
+        <f>VLOOKUP(E$5, config!$B$4:$O$14,MATCH($F24,config!$B$6:$O$6,),FALSE)</f>
+        <v>T-A*INT*,T-NAV*</v>
+      </c>
+      <c r="F24" s="8">
+        <f>F23</f>
+        <v>2028</v>
+      </c>
+      <c r="I24" s="8">
+        <f>VLOOKUP(I$5, config!$B$4:$O$14,MATCH($F24,config!$B$6:$O$6,),FALSE)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C25" s="8" t="str">
+        <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F25,config!$B$6:$O$6,),FALSE)</f>
+        <v>*CO2*,-*CO2S</v>
+      </c>
+      <c r="D25" s="8" t="str">
+        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F25,config!$B$6:$O$6,),FALSE)</f>
+        <v>ENV</v>
+      </c>
+      <c r="F25" s="8">
+        <v>2029</v>
+      </c>
+      <c r="G25" s="8" t="str">
+        <f>VLOOKUP(G$5, config!$B$4:$O$14,MATCH($F25,config!$B$6:$O$6,),FALSE)</f>
+        <v>UP</v>
+      </c>
+      <c r="H25" s="8">
+        <f>VLOOKUP(H$5, config!$B$4:$O$14,MATCH($F25,config!$B$6:$O$6,),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="J25" s="8">
+        <f>VLOOKUP("Value", config!$B$4:$O$14,MATCH($F25,config!$B$6:$O$6,),FALSE)</f>
+        <v>19202</v>
+      </c>
+    </row>
+    <row r="26" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C26" s="8" t="str">
+        <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F26,config!$B$6:$O$6,),FALSE)</f>
+        <v>*CO2*,-*CO2S</v>
+      </c>
+      <c r="D26" s="8" t="str">
+        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F26,config!$B$6:$O$6,),FALSE)</f>
+        <v>ENV</v>
+      </c>
+      <c r="E26" s="8" t="str">
+        <f>VLOOKUP(E$5, config!$B$4:$O$14,MATCH($F26,config!$B$6:$O$6,),FALSE)</f>
+        <v>T-A*INT*,T-NAV*</v>
+      </c>
+      <c r="F26" s="8">
+        <f>F25</f>
+        <v>2029</v>
+      </c>
+      <c r="I26" s="8">
+        <f>VLOOKUP(I$5, config!$B$4:$O$14,MATCH($F26,config!$B$6:$O$6,),FALSE)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="27" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C27" s="8" t="str">
+        <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F27,config!$B$6:$O$6,),FALSE)</f>
+        <v>*CO2*,-*CO2S</v>
+      </c>
+      <c r="D27" s="8" t="str">
+        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F27,config!$B$6:$O$6,),FALSE)</f>
+        <v>ENV</v>
+      </c>
+      <c r="F27" s="8">
+        <v>2030</v>
+      </c>
+      <c r="G27" s="8" t="str">
+        <f>VLOOKUP(G$5, config!$B$4:$O$14,MATCH($F27,config!$B$6:$O$6,),FALSE)</f>
+        <v>UP</v>
+      </c>
+      <c r="H27" s="8">
+        <f>VLOOKUP(H$5, config!$B$4:$O$14,MATCH($F27,config!$B$6:$O$6,),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="J27" s="8">
+        <f>VLOOKUP("Value", config!$B$4:$O$14,MATCH($F27,config!$B$6:$O$6,),FALSE)</f>
+        <v>17314</v>
+      </c>
+    </row>
+    <row r="28" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C28" s="8" t="str">
+        <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F28,config!$B$6:$O$6,),FALSE)</f>
+        <v>*CO2*,-*CO2S</v>
+      </c>
+      <c r="D28" s="8" t="str">
+        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F28,config!$B$6:$O$6,),FALSE)</f>
+        <v>ENV</v>
+      </c>
+      <c r="E28" s="8" t="str">
+        <f>VLOOKUP(E$5, config!$B$4:$O$14,MATCH($F28,config!$B$6:$O$6,),FALSE)</f>
+        <v>T-A*INT*,T-NAV*</v>
+      </c>
+      <c r="F28" s="8">
+        <f>F27</f>
+        <v>2030</v>
+      </c>
+      <c r="I28" s="8">
+        <f>VLOOKUP(I$5, config!$B$4:$O$14,MATCH($F28,config!$B$6:$O$6,),FALSE)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="29" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C29" s="8" t="str">
+        <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F29,config!$B$6:$O$6,),FALSE)</f>
+        <v>*CO2*,-*CO2S</v>
+      </c>
+      <c r="D29" s="8" t="str">
+        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F29,config!$B$6:$O$6,),FALSE)</f>
+        <v>ENV</v>
+      </c>
+      <c r="F29" s="8">
         <v>2050</v>
       </c>
-      <c r="I12" s="8">
-        <f>VLOOKUP(I$5, config!$B$4:$F$14,4,FALSE)</f>
+      <c r="G29" s="8" t="str">
+        <f>VLOOKUP(G$5, config!$B$4:$O$14,MATCH($F29,config!$B$6:$O$6,),FALSE)</f>
+        <v>UP</v>
+      </c>
+      <c r="H29" s="8">
+        <f>VLOOKUP(H$5, config!$B$4:$O$14,MATCH($F29,config!$B$6:$O$6,),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="J29" s="8">
+        <f>VLOOKUP("Value", config!$B$4:$O$14,MATCH($F29,config!$B$6:$O$6,),FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C30" s="8" t="str">
+        <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F30,config!$B$6:$O$6,),FALSE)</f>
+        <v>*CO2*,-*CO2S</v>
+      </c>
+      <c r="D30" s="8" t="str">
+        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F30,config!$B$6:$O$6,),FALSE)</f>
+        <v>ENV</v>
+      </c>
+      <c r="E30" s="8" t="str">
+        <f>VLOOKUP(E$5, config!$B$4:$O$14,MATCH($F30,config!$B$6:$O$6,),FALSE)</f>
+        <v>T-A*INT*,T-NAV*</v>
+      </c>
+      <c r="F30" s="8">
+        <v>2050</v>
+      </c>
+      <c r="I30" s="8">
+        <f>VLOOKUP(I$5, config!$B$4:$O$14,MATCH($F30,config!$B$6:$O$6,),FALSE)</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F13" s="8">
-        <f>VLOOKUP(F$5, config!$B$4:$F$14,5,FALSE)</f>
+    <row r="31" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="F31" s="8">
         <v>0</v>
       </c>
-      <c r="J13" s="8">
-        <f>VLOOKUP("Value", config!$B$4:$F$14,5,FALSE)</f>
+      <c r="J31" s="8">
+        <f>VLOOKUP("Value", config!$B$4:$O$14,MATCH($F31,config!$B$6:$O$6,),FALSE)</f>
         <v>5</v>
       </c>
     </row>
@@ -2752,46 +3858,43 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2314F01-B0DB-448B-9217-DEB90E2D1CCA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38FDCDFB-0691-4080-9945-D9BB1E0910B8}">
   <dimension ref="B2:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="8"/>
+    <col min="2" max="2" width="10.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="8"/>
+    <col min="4" max="4" width="13.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="B2" s="20" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="C3" s="17" t="s">
+      <c r="B3" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="E3" s="17" t="s">
+      <c r="D3" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="19" t="s">
         <v>62</v>
       </c>
       <c r="G3" s="18" t="str">
@@ -2804,23 +3907,22 @@
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="8"/>
       <c r="C4" s="10" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E4" s="8">
         <v>0</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="G4" s="19">
+        <v>83</v>
+      </c>
+      <c r="G4" s="17">
         <v>-1</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="17">
         <f>G4</f>
         <v>-1</v>
       </c>

--- a/SuppXLS/Scen_SYS_ZeroCO2_CAP21-A40E57.xlsx
+++ b/SuppXLS/Scen_SYS_ZeroCO2_CAP21-A40E57.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF6D6EFC-5622-42A7-8BC7-2A5023630F11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4AAC902-B623-48BA-81B3-9BF74B9BA562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regions" sheetId="15" r:id="rId1"/>
@@ -1903,7 +1903,7 @@
   <dimension ref="A1:AA17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
